--- a/Uni Module Object Dictionary.xlsx
+++ b/Uni Module Object Dictionary.xlsx
@@ -323,17 +323,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -664,10 +664,10 @@
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
@@ -693,8 +693,8 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" t="s">
         <v>14</v>
       </c>
@@ -718,8 +718,8 @@
       </c>
     </row>
     <row r="5" spans="2:10" s="3" customFormat="1">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
@@ -743,8 +743,8 @@
       </c>
     </row>
     <row r="6" spans="2:10" s="3" customFormat="1">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
@@ -768,8 +768,8 @@
       </c>
     </row>
     <row r="7" spans="2:10" s="3" customFormat="1">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
@@ -790,8 +790,8 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
@@ -812,10 +812,10 @@
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D9" t="s">
@@ -838,8 +838,8 @@
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>14</v>
       </c>
@@ -860,8 +860,8 @@
       </c>
     </row>
     <row r="11" spans="2:10" s="4" customFormat="1">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
@@ -882,8 +882,8 @@
       </c>
     </row>
     <row r="12" spans="2:10" s="4" customFormat="1">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="4" t="s">
         <v>23</v>
       </c>
@@ -904,10 +904,10 @@
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D13" t="s">
@@ -930,8 +930,8 @@
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="D14" t="s">
         <v>14</v>
       </c>
@@ -952,8 +952,8 @@
       </c>
     </row>
     <row r="15" spans="2:10" s="4" customFormat="1">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
         <v>15</v>
       </c>
@@ -974,8 +974,8 @@
       </c>
     </row>
     <row r="16" spans="2:10" s="4" customFormat="1">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
@@ -996,10 +996,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" s="4" customFormat="1">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1022,8 +1022,8 @@
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" t="s">
         <v>14</v>
       </c>
@@ -1044,8 +1044,8 @@
       </c>
     </row>
     <row r="19" spans="2:9" s="4" customFormat="1">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="4" t="s">
         <v>15</v>
       </c>
@@ -1066,8 +1066,8 @@
       </c>
     </row>
     <row r="20" spans="2:9" s="4" customFormat="1">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="4" t="s">
         <v>23</v>
       </c>
@@ -1088,10 +1088,10 @@
       </c>
     </row>
     <row r="21" spans="2:9" s="4" customFormat="1">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1114,8 +1114,8 @@
       </c>
     </row>
     <row r="22" spans="2:9" s="4" customFormat="1">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="4" t="s">
         <v>14</v>
       </c>
@@ -1136,8 +1136,8 @@
       </c>
     </row>
     <row r="23" spans="2:9" s="4" customFormat="1">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
@@ -1158,8 +1158,8 @@
       </c>
     </row>
     <row r="24" spans="2:9" s="4" customFormat="1">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
@@ -1180,10 +1180,10 @@
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D25" t="s">
@@ -1206,8 +1206,8 @@
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
       <c r="D26" t="s">
         <v>14</v>
       </c>
@@ -1228,8 +1228,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" s="4" customFormat="1">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="4" t="s">
         <v>15</v>
       </c>
@@ -1250,8 +1250,8 @@
       </c>
     </row>
     <row r="28" spans="2:9" s="4" customFormat="1">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="4" t="s">
         <v>23</v>
       </c>
@@ -1272,10 +1272,10 @@
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D29" t="s">
@@ -1298,8 +1298,8 @@
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
       <c r="D30" t="s">
         <v>14</v>
       </c>
@@ -1320,8 +1320,8 @@
       </c>
     </row>
     <row r="31" spans="2:9" s="4" customFormat="1">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="4" t="s">
         <v>15</v>
       </c>
@@ -1342,8 +1342,8 @@
       </c>
     </row>
     <row r="32" spans="2:9" s="4" customFormat="1">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="4" t="s">
         <v>23</v>
       </c>
@@ -1364,47 +1364,53 @@
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="9" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="12"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="7"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
       <c r="E34" s="1"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="7"/>
-      <c r="C35" s="10"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
       <c r="E35" s="1"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="7"/>
-      <c r="C36" s="10"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
       <c r="E36" s="1"/>
       <c r="I36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="B17:B20"/>
@@ -1413,12 +1419,6 @@
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="C25:C28"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
